--- a/QAPF.xlsx
+++ b/QAPF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="720" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="14740" yWindow="2440" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TAS.csv" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+      <selection activeCell="G2" sqref="G2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -647,10 +647,10 @@
         <v>78.8</v>
       </c>
       <c r="F2" s="5">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G2" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H2" s="6">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>77.599999999999994</v>
       </c>
       <c r="F3" s="5">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="H3" s="6">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>77.53</v>
       </c>
       <c r="F4" s="5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5">
         <v>80</v>
@@ -725,10 +725,10 @@
         <v>76.010000000000005</v>
       </c>
       <c r="F5" s="5">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="G5" s="5">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -751,10 +751,10 @@
         <v>75.33</v>
       </c>
       <c r="F6" s="5">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G6" s="5">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H6" s="6">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>74.989999999999995</v>
       </c>
       <c r="F7" s="5">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="G7" s="5">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>74.849999999999994</v>
       </c>
       <c r="F8" s="5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G8" s="5">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -829,10 +829,10 @@
         <v>74.8</v>
       </c>
       <c r="F9" s="5">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="G9" s="5">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H9" s="6">
         <v>0</v>
@@ -855,10 +855,10 @@
         <v>74.52</v>
       </c>
       <c r="F10" s="5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G10" s="5">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
@@ -881,10 +881,10 @@
         <v>73.739999999999995</v>
       </c>
       <c r="F11" s="5">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G11" s="5">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H11" s="6">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>69.33</v>
       </c>
       <c r="F12" s="5">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G12" s="5">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="H12" s="6">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>68.28</v>
       </c>
       <c r="F13" s="5">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="G13" s="5">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H13" s="6">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>53.99</v>
       </c>
       <c r="F14" s="5">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="G14" s="5">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="H14" s="6">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="5">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="G15" s="5">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H15" s="7">
         <v>72.69</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="G16" s="5">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="H16" s="3">
         <v>69.849999999999994</v>
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="5">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="G17" s="5">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="H17" s="3">
         <v>53.19</v>
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="5">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G18" s="5">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3">
         <v>58.76</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="5">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="G19" s="5">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="H19" s="3">
         <v>51.41</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="5">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G20" s="5">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="H20" s="3">
         <v>60.87</v>
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="5">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G21" s="5">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H21" s="3">
         <v>60.59</v>
@@ -1167,10 +1167,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="5">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G22" s="5">
-        <v>46</v>
+        <v>80</v>
       </c>
       <c r="H22" s="3">
         <v>55.92</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="5">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="G23" s="5">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H23" s="3">
         <v>61.28</v>
@@ -1219,10 +1219,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="5">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G24" s="5">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="H24" s="3">
         <v>60.17</v>
@@ -1245,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="5">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G25" s="5">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="H25" s="3">
         <v>57.63</v>
